--- a/src/main/resources/template/excel/export/PurExpireFormByFormNo.xlsx
+++ b/src/main/resources/template/excel/export/PurExpireFormByFormNo.xlsx
@@ -82,10 +82,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>单据编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>采购金额</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -163,6 +159,10 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(F3:F3:F3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单编号</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +633,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,66 +682,66 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
